--- a/Assets/Resources/CSV.data/StatInfo/WaveStat.xlsx
+++ b/Assets/Resources/CSV.data/StatInfo/WaveStat.xlsx
@@ -977,7 +977,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1005,13 +1005,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2">
         <v>1.5</v>
@@ -1019,13 +1019,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2">
         <v>1.5</v>
@@ -1033,13 +1033,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
         <v>40</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>30</v>
       </c>
       <c r="D4" s="2">
         <v>1.5</v>
@@ -1047,13 +1047,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2">
         <v>1.5</v>
@@ -1061,13 +1061,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2">
         <v>1.5</v>
@@ -1075,13 +1075,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2">
         <v>1.5</v>
@@ -1092,10 +1092,10 @@
         <v>80</v>
       </c>
       <c r="B8" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2">
         <v>1.5</v>
@@ -1103,13 +1103,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B9" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2">
         <v>1.5</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B10" s="2">
         <v>5</v>
@@ -1131,13 +1131,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B11" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2">
         <v>1.5</v>
